--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2232904.508903207</v>
+        <v>2231016.927386806</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>18.79385811785072</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -823,22 +823,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>18.37682225755661</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>8.787420751036535</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>287.1295912089695</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>339.0399185806814</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>6.935486919842822</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>181.2178631822718</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>83.69283718034896</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586821</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>59.71215406761458</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896928</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>94.16481274941349</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>88.52416382797631</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6793845477821</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>283.2741843940248</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>51.44029960352412</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.964516789693</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.2898147863545</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>179.5232416718492</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>87.65220976161947</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>128.3708685936566</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>180.2851782418417</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965533</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801214</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437422</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.7105717389791</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>39.72583251028998</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523575</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>137.7023943814541</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522968</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898724</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857176</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692858</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329065</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789553</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463139</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415219</v>
       </c>
       <c r="S43" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287487</v>
       </c>
       <c r="U43" t="n">
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593966</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014.892857925728</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1645.930340985316</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1287.664642378566</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>901.8763897803212</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>490.8904849907137</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>72.92667688890054</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2388.358616186807</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.358616186807</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.892857925728</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2014.892857925728</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4413,37 +4413,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1920.409918978289</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="C5" t="n">
-        <v>1551.447402037877</v>
+        <v>1249.542876750359</v>
       </c>
       <c r="D5" t="n">
-        <v>1193.181703431127</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>807.3934508328825</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>396.407546043275</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="Y5" t="n">
-        <v>2307.009759042411</v>
+        <v>1618.50539369077</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>691.7065227167806</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>541.5898833044448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1662.483574129468</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C8" t="n">
-        <v>1293.521057189057</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D8" t="n">
-        <v>935.2553585823061</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>549.4671059840618</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>138.4812011944543</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862884</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834947</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473039</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129468</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.483574129468</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.483574129468</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y8" t="n">
-        <v>1662.483574129468</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641996</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598714</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.128984206434</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785271</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661913</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837982</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W10" t="n">
-        <v>728.128984206434</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X10" t="n">
-        <v>728.128984206434</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.128984206434</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5063,28 +5063,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5115,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138934</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>266.1532743881928</v>
+        <v>192.3330639344409</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344409</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>192.3330639344409</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471197</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S13" t="n">
-        <v>1409.497923256916</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T13" t="n">
-        <v>1185.712508046422</v>
+        <v>964.1357418247869</v>
       </c>
       <c r="U13" t="n">
-        <v>896.58386925998</v>
+        <v>675.0071030383451</v>
       </c>
       <c r="V13" t="n">
-        <v>896.58386925998</v>
+        <v>420.3226148324583</v>
       </c>
       <c r="W13" t="n">
-        <v>896.58386925998</v>
+        <v>420.3226148324583</v>
       </c>
       <c r="X13" t="n">
-        <v>668.5943183619627</v>
+        <v>192.3330639344409</v>
       </c>
       <c r="Y13" t="n">
-        <v>447.8017392184325</v>
+        <v>192.3330639344409</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141295</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496978</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2446.115379232725</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1212.407445354291</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1212.407445354291</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>923.2788065678495</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>668.5943183619627</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="W16" t="n">
-        <v>668.5943183619627</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="X16" t="n">
-        <v>668.5943183619627</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="Y16" t="n">
-        <v>447.8017392184325</v>
+        <v>199.5300356889268</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,55 +5510,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L18" t="n">
-        <v>796.3635653766202</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.683698656582</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N18" t="n">
-        <v>1433.546326320615</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>789.0753054710162</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V19" t="n">
-        <v>789.0753054710162</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W19" t="n">
-        <v>499.6581354340557</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5765,37 +5765,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889268</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889268</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>420.3226148324569</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>199.5300356889268</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,10 +6005,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881929</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
@@ -6175,22 +6175,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U25" t="n">
-        <v>782.7991340754431</v>
+        <v>898.7925182488381</v>
       </c>
       <c r="V25" t="n">
-        <v>782.7991340754431</v>
+        <v>644.1080300429511</v>
       </c>
       <c r="W25" t="n">
-        <v>493.3819640384826</v>
+        <v>354.6908600059904</v>
       </c>
       <c r="X25" t="n">
-        <v>265.3924131404652</v>
+        <v>354.6908600059904</v>
       </c>
       <c r="Y25" t="n">
-        <v>265.3924131404652</v>
+        <v>266.1532743881929</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211722</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>545.1765965867978</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>545.1765965867978</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>395.0599571744621</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>395.0599571744621</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
@@ -6403,31 +6403,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>964.1357418247862</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>782.0295011764613</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V28" t="n">
-        <v>527.3450129705744</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W28" t="n">
-        <v>527.3450129705744</v>
+        <v>954.8146123150549</v>
       </c>
       <c r="X28" t="n">
-        <v>527.3450129705744</v>
+        <v>726.8250614170375</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705744</v>
+        <v>726.8250614170375</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6482,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>637.6995017749892</v>
+        <v>439.53242995422</v>
       </c>
       <c r="C31" t="n">
-        <v>637.6995017749892</v>
+        <v>326.357112307684</v>
       </c>
       <c r="D31" t="n">
-        <v>543.3437276440243</v>
+        <v>232.0013381767191</v>
       </c>
       <c r="E31" t="n">
-        <v>451.191499343002</v>
+        <v>232.0013381767191</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264623</v>
+        <v>232.0013381767191</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>232.0013381767191</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>137.3441950060333</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933506</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667514</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962057</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096195</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662001</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818926</v>
+        <v>902.6804289818947</v>
       </c>
       <c r="X31" t="n">
-        <v>902.6804289818926</v>
+        <v>730.4517433652483</v>
       </c>
       <c r="Y31" t="n">
-        <v>763.5871013238583</v>
+        <v>565.4200295030888</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6698,22 +6698,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P32" t="n">
         <v>4454.632848899128</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504506</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,7 +6859,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,55 +6932,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7087,13 +7087,13 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7151,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7169,7 +7169,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
@@ -7181,40 +7181,40 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2520.760934363149</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7412,10 +7412,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,25 +7488,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
         <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,13 +7570,13 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="44">
@@ -7649,10 +7649,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649686</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142018</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302005</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>80.50021372615117</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>272.8719470256798</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>96.03744927814694</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.716419872982</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9477,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>444.4889386861652</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>113.6026921294543</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10440,16 +10440,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714835</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10911,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>15.83804904622824</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,13 +11151,13 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11385,19 +11385,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>134.4977453535108</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>52.26914989715569</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>109.3966461556269</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>78.54216539558278</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>24.2414254358211</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2.963168004552585</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>167.1443537485707</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>47.32565823185793</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633777</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,22 +24415,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>106.7141107267281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>130.9324435904754</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>17.05017942927472</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24646,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
-        <v>105.9521741567357</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>15.49015632542483</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>25.6790023420837</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="10">
@@ -26314,46 +26314,46 @@
         <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583915</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="E2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.230645907</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="I2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="J2" t="n">
         <v>527889.230645907</v>
       </c>
       <c r="K2" t="n">
-        <v>549209.885416114</v>
+        <v>549209.8854161144</v>
       </c>
       <c r="L2" t="n">
-        <v>554203.1946583907</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="M2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="N2" t="n">
+        <v>554203.1946583905</v>
+      </c>
+      <c r="O2" t="n">
         <v>554203.1946583906</v>
       </c>
-      <c r="N2" t="n">
-        <v>554203.1946583906</v>
-      </c>
-      <c r="O2" t="n">
-        <v>554203.1946583908</v>
-      </c>
       <c r="P2" t="n">
-        <v>554203.1946583906</v>
+        <v>554203.1946583909</v>
       </c>
     </row>
     <row r="3">
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284563</v>
+        <v>44162.60530284576</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086675</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284582</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007422</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007456</v>
+        <v>7916.731656007414</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007437</v>
+        <v>7916.731656007413</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007414</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007458</v>
+        <v>7916.73165600748</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020401</v>
+        <v>26081.35417020403</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732792</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
+        <v>30335.51889732796</v>
+      </c>
+      <c r="O4" t="n">
+        <v>30335.51889732795</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="O4" t="n">
-        <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26467,46 +26467,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-266540.8113354838</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.067879061</v>
+        <v>323427.0678790612</v>
       </c>
       <c r="D6" t="n">
         <v>323427.0678790607</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571362</v>
+        <v>-97272.32256168575</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411828</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411828</v>
+        <v>427887.7139152109</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.1730411828</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.1730411829</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.9538485899</v>
+        <v>251464.4947226179</v>
       </c>
       <c r="K6" t="n">
-        <v>382337.7174128415</v>
+        <v>382319.2236749074</v>
       </c>
       <c r="L6" t="n">
-        <v>415809.6631401704</v>
+        <v>415809.6631401709</v>
       </c>
       <c r="M6" t="n">
-        <v>291351.5547071999</v>
+        <v>291351.5547072004</v>
       </c>
       <c r="N6" t="n">
         <v>426152.5699410372</v>
       </c>
       <c r="O6" t="n">
-        <v>426152.5699410375</v>
+        <v>426152.5699410373</v>
       </c>
       <c r="P6" t="n">
-        <v>381989.9646381917</v>
+        <v>381989.9646381918</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26787,28 +26787,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108344</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855727</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>305.1289146465064</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>23.03118778159273</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890125</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,16 +27591,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855544</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>67.55345041171341</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>74.74425144011354</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>160.311334178785</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>197.6620873047944</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>184.0550285887357</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>330.0913328404461</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831827</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28068,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>192.4254892562134</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-1.104943754957264e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.386056343235277e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.1318901296406</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32227,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32236,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32400,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32412,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047529</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709594</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>168.5132465112254</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35887,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>583.2963240761462</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O18" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>487.1420318003109</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>754.9133157366316</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36923,16 +36923,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>320.696107060979</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412257</v>
+        <v>67.7110267941227</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004318</v>
+        <v>94.42895660043193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37160,16 +37160,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37321,7 +37321,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109132</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502048</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37391,7 +37391,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>724.9245949685502</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,7 +37400,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,16 +37631,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>103.8510818313024</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37871,13 +37871,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520613</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38105,19 +38105,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>341.5911602850355</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
